--- a/public/documents/questionnaire-en.xlsx
+++ b/public/documents/questionnaire-en.xlsx
@@ -5,120 +5,117 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elisha Salas\OneDrive\Escritorio\W-kosher.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elisha Salas\OneDrive\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3CD8595-8CAE-48EA-8242-65EA034AAEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2741782-5246-4D2B-BD01-38CD37B80B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados da Empresa" sheetId="1" r:id="rId1"/>
-    <sheet name="Produtos" sheetId="2" r:id="rId2"/>
-    <sheet name="Ingredientes" sheetId="3" r:id="rId3"/>
-    <sheet name="Declaração" sheetId="4" r:id="rId4"/>
+    <sheet name="Company Information" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Ingredients" sheetId="3" r:id="rId3"/>
+    <sheet name="Declaration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
-  <si>
-    <t>W-KOSHER – DADOS DA EMPRESA</t>
-  </si>
-  <si>
-    <t>Dados Gerais da Empresa</t>
-  </si>
-  <si>
-    <t>Nome da Empresa</t>
-  </si>
-  <si>
-    <t>Endereço</t>
-  </si>
-  <si>
-    <t>Cidade / País</t>
-  </si>
-  <si>
-    <t>Pessoa que Preenche o Formulário</t>
-  </si>
-  <si>
-    <t>Nome Completo</t>
-  </si>
-  <si>
-    <t>Cargo</t>
-  </si>
-  <si>
-    <t>Email / Telefone</t>
-  </si>
-  <si>
-    <t>Responsável pela Atualização</t>
-  </si>
-  <si>
-    <t>Código</t>
-  </si>
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Estado de Kashrut</t>
-  </si>
-  <si>
-    <t>Linha de Produção</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
-    <t>Código do Produto</t>
-  </si>
-  <si>
-    <t>Ingrediente</t>
-  </si>
-  <si>
-    <t>Função</t>
-  </si>
-  <si>
-    <t>Fornecedor</t>
-  </si>
-  <si>
-    <t>País de Origem</t>
-  </si>
-  <si>
-    <t>Certificação Kosher</t>
-  </si>
-  <si>
-    <t>Entidade Certificadora</t>
-  </si>
-  <si>
-    <t>Estado Haláchico</t>
-  </si>
-  <si>
-    <t>Derivado Animal</t>
-  </si>
-  <si>
-    <t>DECLARAÇÃO RESPONSÁVEL – W-KOSHER</t>
-  </si>
-  <si>
-    <t>Declaro que todas as informações fornecidas neste documento são verdadeiras, completas e atualizadas. Comprometo-me a informar a W-Kosher sobre qualquer alteração em ingredientes, fornecedores ou processos de produção.</t>
-  </si>
-  <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>Cargo:</t>
-  </si>
-  <si>
-    <t>Assinatura:</t>
-  </si>
-  <si>
-    <t>Data:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+  <si>
+    <t>W-KOSHER – COMPANY INFORMATION</t>
+  </si>
+  <si>
+    <t>General Company Details</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City / Country</t>
+  </si>
+  <si>
+    <t>Person Completing This Form</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Email / Phone</t>
+  </si>
+  <si>
+    <t>Person Responsible for Updates</t>
+  </si>
+  <si>
+    <t>Product Code</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Kashrut Status</t>
+  </si>
+  <si>
+    <t>Production Line</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Ingredient</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Country of Origin</t>
+  </si>
+  <si>
+    <t>Kosher Certified</t>
+  </si>
+  <si>
+    <t>Certifying Agency</t>
+  </si>
+  <si>
+    <t>Halachic Status</t>
+  </si>
+  <si>
+    <t>Animal Derived</t>
+  </si>
+  <si>
+    <t>RESPONSIBLE DECLARATION – W-KOSHER</t>
+  </si>
+  <si>
+    <t>I hereby declare that all information provided in this document is accurate, complete, and up to date. I undertake to notify W-Kosher of any change in ingredients, suppliers, or production processes.</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Position:</t>
+  </si>
+  <si>
+    <t>Signature:</t>
+  </si>
+  <si>
+    <t>Date:</t>
   </si>
 </sst>
 </file>
@@ -137,16 +134,19 @@
       <b/>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -699,7 +699,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -735,33 +735,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>16</v>
@@ -777,14 +777,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -794,7 +794,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -828,22 +828,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
